--- a/main/static/records/Kinder.xlsx
+++ b/main/static/records/Kinder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="270">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0064</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096859</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">09395885754</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0169</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007096998</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">09285756620</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0248</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007097015</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t xml:space="preserve">09125786560</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0046</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007097020</t>
   </si>
   <si>
@@ -151,6 +163,9 @@
     <t xml:space="preserve">09465830661</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0003</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007097037</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t xml:space="preserve">09487630195</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0016</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007097042</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
     <t xml:space="preserve">09205070875</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0068</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100142</t>
   </si>
   <si>
@@ -214,6 +235,9 @@
     <t xml:space="preserve">09197796228</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0154</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100157</t>
   </si>
   <si>
@@ -235,6 +259,9 @@
     <t xml:space="preserve">09980234249</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0093</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dealagdon</t>
   </si>
   <si>
@@ -253,6 +280,9 @@
     <t xml:space="preserve">09481007657</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0011</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100164</t>
   </si>
   <si>
@@ -274,6 +304,9 @@
     <t xml:space="preserve">09159316865</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0205</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100334</t>
   </si>
   <si>
@@ -295,6 +328,9 @@
     <t xml:space="preserve">09108991064</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0017</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100283</t>
   </si>
   <si>
@@ -316,6 +352,9 @@
     <t xml:space="preserve">09308141064</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0014</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100290</t>
   </si>
   <si>
@@ -337,6 +376,9 @@
     <t xml:space="preserve">09566717239</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0038</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100305</t>
   </si>
   <si>
@@ -358,6 +400,9 @@
     <t xml:space="preserve">09208186541</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0110</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100312</t>
   </si>
   <si>
@@ -367,6 +412,9 @@
     <t xml:space="preserve">09509191687</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0024</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100327</t>
   </si>
   <si>
@@ -388,6 +436,9 @@
     <t xml:space="preserve">09121175109</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0251</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007100135</t>
   </si>
   <si>
@@ -409,6 +460,9 @@
     <t xml:space="preserve">09104378037</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0091</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149070</t>
   </si>
   <si>
@@ -430,6 +484,9 @@
     <t xml:space="preserve">09095788624</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0221</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149089</t>
   </si>
   <si>
@@ -442,6 +499,9 @@
     <t xml:space="preserve">09109451246</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0220</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149092</t>
   </si>
   <si>
@@ -460,6 +520,9 @@
     <t xml:space="preserve">09086278151</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149111</t>
   </si>
   <si>
@@ -481,6 +544,9 @@
     <t xml:space="preserve">09219716907</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0034</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149114</t>
   </si>
   <si>
@@ -502,6 +568,9 @@
     <t xml:space="preserve">09988612968</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0089</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149023</t>
   </si>
   <si>
@@ -520,6 +589,9 @@
     <t xml:space="preserve">09091858820</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0059</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149026</t>
   </si>
   <si>
@@ -538,6 +610,9 @@
     <t xml:space="preserve">09509271907</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0007</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149045</t>
   </si>
   <si>
@@ -550,6 +625,9 @@
     <t xml:space="preserve">09203786794</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0203</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peñaflor</t>
   </si>
   <si>
@@ -565,6 +643,9 @@
     <t xml:space="preserve">09087240062</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0033</t>
+  </si>
+  <si>
     <t xml:space="preserve">Petallo</t>
   </si>
   <si>
@@ -604,6 +685,9 @@
     <t xml:space="preserve">09126098218</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0210</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007149067</t>
   </si>
   <si>
@@ -622,6 +706,9 @@
     <t xml:space="preserve">09480851422</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0117</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007170623</t>
   </si>
   <si>
@@ -643,6 +730,9 @@
     <t xml:space="preserve">09123177541</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007170640</t>
   </si>
   <si>
@@ -664,6 +754,9 @@
     <t xml:space="preserve">09095188648</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0049</t>
+  </si>
+  <si>
     <t xml:space="preserve">Valiente</t>
   </si>
   <si>
@@ -682,6 +775,9 @@
     <t xml:space="preserve">09081931534</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0030</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007170645</t>
   </si>
   <si>
@@ -703,6 +799,9 @@
     <t xml:space="preserve">09060239499</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0048</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007170707</t>
   </si>
   <si>
@@ -721,10 +820,16 @@
     <t xml:space="preserve">09479671441</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0158</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007170690</t>
   </si>
   <si>
     <t xml:space="preserve">Cristian Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0250</t>
   </si>
 </sst>
 </file>
@@ -1017,22 +1122,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H37"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,899 +1188,1007 @@
       <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="16" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="16" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="21" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
